--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.88163644</v>
+        <v>2897578.695563155</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>212.4544848593657</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.455314574987</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.9498252292655</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149488</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.26618645491687</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>80.34251881621384</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>27.4054202032156</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.192132874536446</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>142.4361410009233</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.280783616703</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2482.548601261287</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2151.485713917717</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2151.485713917717</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1778.019955656637</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.880623680825</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>648.3816859950551</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>648.3816859950551</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2080756496231</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>944.4614752479192</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>944.4614752479192</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>944.4614752479192</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>558.6732226496749</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>551.7277219004715</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2057.295728843235</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1704.527073573121</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1331.061315312041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1331.061315312041</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E7" t="n">
-        <v>81.48458430007847</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F7" t="n">
-        <v>81.48458430007847</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G7" t="n">
-        <v>81.48458430007847</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>1002.011105850105</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>633.0485889096931</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>274.7828903029426</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>186.6833301434221</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>236.3052261842084</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>318.8683807588008</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>871.681639005</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>1058.381051830408</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>1685.688719890254</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2232.849924657331</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996626</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515049</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.466848388712</v>
+        <v>2326.13419178276</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.466848388712</v>
+        <v>2072.442488527911</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.403961045141</v>
+        <v>1741.379601184341</v>
       </c>
       <c r="W8" t="n">
-        <v>1985.635305775027</v>
+        <v>1388.610945914226</v>
       </c>
       <c r="X8" t="n">
-        <v>1612.169547513947</v>
+        <v>1388.610945914226</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.030215538135</v>
+        <v>1388.610945914226</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004793</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>514.0047525572145</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1465.114432469609</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2014.550441222332</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>154.9909114159742</v>
       </c>
       <c r="L10" t="n">
         <v>339.8239063167927</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1051.663387648864</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>826.0341909612292</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>826.0341909612292</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5361,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415606</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>162.7555498691522</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>203.5259151506442</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,19 +8535,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>257.8023768260597</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478232</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>285.1863782336312</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333541</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333541</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380337</v>
@@ -26323,37 +26323,37 @@
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481118</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682733</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682746</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084677</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029539</v>
+        <v>-205389.9126029537</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115906</v>
+        <v>384577.9666115909</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.160517796</v>
+        <v>228774.1605177958</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.8130271413</v>
+        <v>-211991.5509525771</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536648</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.6591610719</v>
+        <v>382637.9212356367</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456067</v>
+        <v>434852.6297201707</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536654</v>
+        <v>559061.1404282294</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209787</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.76968264892358</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.7826240810666</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1957137207534</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058462</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>128.9047023868783</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277063</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>301.5878512560479</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>185.2464429117504</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>203.1737490255822</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>143.8245136571737</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,25 +32081,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>162.5000833330458</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>184.204287236206</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
@@ -35179,19 +35179,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>375.4138195112093</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>396.4181323974677</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9738807864583</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,13 +37078,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>23.94570355317166</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
